--- a/Thesis_Codes/Back_End/Baguio_Dataset.xlsx
+++ b/Thesis_Codes/Back_End/Baguio_Dataset.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ellison\School\3RD YEAR COLLEGE 1ST SEM\SOFTWARE ENGINEER\Cultour App\CulTour_Ellison_and_Friends\Thesis_Codes\Back_End\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA5312-6A68-4130-A662-EA72C93C616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1470" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitor_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="User_Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Tourist Attraction" sheetId="3" r:id="rId3"/>
-    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Monitor_Data"/>
+    <sheet r:id="rId2" sheetId="2" name="User_Account"/>
+    <sheet r:id="rId3" sheetId="3" name="Tourist Attraction"/>
+    <sheet r:id="rId4" sheetId="4" name="Restaurant"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>Restaurant_ID</t>
   </si>
@@ -302,6 +283,9 @@
     <t>Ratings</t>
   </si>
   <si>
+    <t>History</t>
+  </si>
+  <si>
     <t>Burnham Park</t>
   </si>
   <si>
@@ -317,6 +301,9 @@
     <t>Free</t>
   </si>
   <si>
+    <t>In the early 1900s, Baguio City was designed as a hill station for the American military and expatriates living in the Philippines. Burnham Park quickly became the centerpiece of this retreat destination, showcasing a man-made lake, beautifully landscaped gardens, and wide open spaces meant for leisure and gatherings. The park’s urban design also included areas for sporting events and an orchidarium, each contributing to Baguio's reputation as a diverse and inclusive leisure spot. Since then, tourism in Baguio City has flourished, with Burnham Park remaining a must-visit location. Tourism peaked during the American colonial period and continued to thrive post-independence, further increasing when the Philippines experienced economic growth and increased mobility in the late 20th century. A surge of visitors, both local and international, began to flock to the city, especially during summer months to escape the heat of the lowlands, making Baguio a premier tourist destination in the Philippines.</t>
+  </si>
+  <si>
     <t>Mines View Park</t>
   </si>
   <si>
@@ -326,6 +313,9 @@
     <t>50 PHP</t>
   </si>
   <si>
+    <t>With its crisp mountain air and panoramic views, Baguio City was officially established by the Americans in 1909 as the Summer Capitol of the Philippines. Mines View Park itself gained popularity for its spectacular vantage point overlooking the mining town of Itogon and the Cordillera mountains. In the early days, visitors came to the park to witness the operations of the gold and copper mines which were the main industry of the region.</t>
+  </si>
+  <si>
     <t>Session Road</t>
   </si>
   <si>
@@ -341,6 +331,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>The road was named after the first Philippine Commission session held in Baguio in 1904. This event was significant as it marked the transformation of Baguio into a hill station during the American colonial period. The aim was to create a respite from the tropical heat for American soldiers and civilians. Session Road has since evolved, with its winding path leading travelers and locals to an array of shops, restaurants, and cultural landmarks.</t>
+  </si>
+  <si>
     <t>Baguio Cathedral</t>
   </si>
   <si>
@@ -350,18 +343,27 @@
     <t>Historical</t>
   </si>
   <si>
+    <t>The Baguio Cathedral, officially known as the Our Lady of the Atoning Cathedral, stands as one of the most iconic and historically significant landmarks in Baguio City. Completed in 1936, the cathedral was designed by architect Cesar Concio and has since been a symbol of faith and resilience for the local community and its visitors. During World War II, the cathedral served as an evacuation center, offering sanctuary to thousands of refugees. Its strategic location atop Mount Mary Hill provided a vantage point that helped save many lives during the bombings. The Baguio Cathedral is truly a testament to the city’s enduring spirit in the face of adversity.</t>
+  </si>
+  <si>
     <t>Camp John Hay</t>
   </si>
   <si>
     <t>A former military base transformed into a premier leisure destination, Camp John Hay offers a wide range of activities for visitors. It features lush forests, scenic trails, golf courses, and a variety of recreational facilities. The cool climate and serene environment make it a perfect getaway for nature lovers and outdoor enthusiasts.</t>
   </si>
   <si>
+    <t>Camp John Hay, located in Baguio, the Philippines, has a storied history that interweaves with the tourism industry of the region. Established in 1903, this former military rest and recreation facility was named after U.S. President Theodore Roosevelt's Secretary of State, John Milton Hay. Its initial role was to serve as a summer sanctuary for U.S. military personnel and civilians, taking advantage of Baguio's cooler climate compared to the rest of the country.</t>
+  </si>
+  <si>
     <t>Wright Park</t>
   </si>
   <si>
     <t>A charming park known for its picturesque pine tree-lined promenade. Visitors can enjoy leisurely strolls, horse-drawn carriage rides, or simply relax on a bench and admire the serene surroundings. The park is also home to a children's playground and a variety of food stalls.</t>
   </si>
   <si>
+    <t>Nestled in the heart of the City of Pines, Wright Park stands as one of the historical and recreational landmarks in Baguio, Philippines. Named after Governor-General Luke E. Wright, the park epitomizes the American colonial influence on the country, and has been a focal point for tourists since the early 20th century.</t>
+  </si>
+  <si>
     <t>Baguio Botanical Garden</t>
   </si>
   <si>
@@ -374,6 +376,9 @@
     <t>100 PHP</t>
   </si>
   <si>
+    <t>A huge piece of land that is owned by the Philippine government, Botanical Garden, like Burnham Park is one of those prime pieces of real estate that provides priceless peace and tranquility to a city that is in danger of becoming an urban jungle. Said to have been at one time a zoo and actually named the Botanical &amp; Zoological Garden, the Baguio Botanical Garden has been known, officially and unofficially by many names -- Igorot Village (for the different Cordillera huts and statues that decorated the park, Imelda Park (who was for a long time the First Lady of the country) and, most recently, Centennial Park in celebration of 100 years of the Summer Capital of the Philippines.</t>
+  </si>
+  <si>
     <t>Tam-awan Village</t>
   </si>
   <si>
@@ -386,6 +391,9 @@
     <t>9:00 AM - 5:00 PM</t>
   </si>
   <si>
+    <t>Tam-awan Village is one of Baguio City's  "newer" attractions, having been created only in 1998 by the Chanum Foundation. Located at the outskirts of the city, it is an artists colony set amid a charming collection of Ifugao and Kalinga huts. Getting there may be a little tricky but certainly well worth the trip.</t>
+  </si>
+  <si>
     <t>Bencab Museum</t>
   </si>
   <si>
@@ -398,18 +406,27 @@
     <t>10:00 AM - 5:00 PM</t>
   </si>
   <si>
+    <t>The museum is named after its founder, Benedicto Reyes Cabrera, better known as BenCab, one of the Philippines' most esteemed contemporary artists and a National Artist for Visual Arts. His vision was to create a space that not only showcases his life's work but also promotes Philippine art, culture, and talent. The museum is situated on a promontory in Tuba, Benguet, overlooking verdant hills and a picturesque garden that includes a farm and a mini-forest, encapsulating Baguio's natural allure.</t>
+  </si>
+  <si>
     <t>Good Shepherd Convent</t>
   </si>
   <si>
     <t>Renowned for its delectable pastries and preserves, the Good Shepherd Convent is a popular destination for food lovers. Visitors can purchase a variety of sweet treats, including ube jam, peanut brittle, and delectable cakes.</t>
   </si>
   <si>
+    <t>The Good Shepherd Convent on Gibraltar Road is a favorite stop. One can find this store up a driveway right beside Mines View Park. Popular for its peanut brittle, ube and strawberry jam. They have expanded their products to include baked goodies, homemade ice cream and a tasty strawberry-calamansi juice over the counter.</t>
+  </si>
+  <si>
     <t>Philippine Military Academy</t>
   </si>
   <si>
     <t>A prestigious military academy with a picturesque campus. Visitors can explore the academy's museum, which showcases the history and traditions of the Philippine military. The campus itself is a stunning example of military architecture and offers breathtaking views of the surrounding mountains.</t>
   </si>
   <si>
+    <t>The Philippine Military Academy began on October 25, 1898 with the establishment of the Academia Militar in Malolos, Bulacan by virtue of a decree issued by the first president of the young Philippine Republic, General Emilio Aguinaldo. Graduates were awarded regular commission in the armed forces. Its existence was short-lived, barely four months old, up to 20 January 1899, when hostilities between the Americans and Filipinos erupted. While the Philippines was under American colonial rule, an officer's school of the Philippine Constabulary was established at the Walled City of Intramuros in Manila on February 17, 1905.</t>
+  </si>
+  <si>
     <t>Baguio Night Market</t>
   </si>
   <si>
@@ -419,16 +436,25 @@
     <t>5:00 PM - 10:00 PM</t>
   </si>
   <si>
+    <t>Baguio Night Market, commonly known as Harrison Road Night Market, is a must-visit shopping destination when in Baguio City, Philippines. Situated along Harrison Road, Baguio Night Market is ideal for those seeking affordable souvenirs and a taste of local culture. The market is bustling with various stalls offering Filipino handicrafts, local delicacies, clothing, shoes, and more.</t>
+  </si>
+  <si>
     <t>Museo Kordilyera</t>
   </si>
   <si>
     <t>A museum celebrating the indigenous cultures of the Cordillera region, showcasing their art, artifacts, and traditions.</t>
   </si>
   <si>
+    <t>The Museo Kordilyera of the University of the Philippines Baguio (UPB) is an ethnographic museum dedicated to the preservation and enrichment of the indigenous cultures of the Cordillera Administrative Region and its neighboring areas in Northern Luzon. The major indigenous societies – the Bontok,Ibaloy, Ifugao, Kalinga, Kankana-ey – and the smaller groups native to the region provide the University a rich ground for research in the various academic disciplines, and exceptional opportunities for the significant social interventions. It is in view of this that the University of the Philippines Baguio has identified Cordillera and indigenous studies as its niche. The Museo Kordilyera accentuates this niche at the same time that it reinforces the role of the University as a premier arts and science institution in Northern Luzon.</t>
+  </si>
+  <si>
     <t>Igorot Stone Kingdom</t>
   </si>
   <si>
     <t>A cultural theme park featuring impressive stone architecture, showcasing Cordilleran culture through stone walls, steps, and structures. Visitors can experience traditional Igorot culture, take photos in tradictional attire, and enjoy panoramic mountain views</t>
+  </si>
+  <si>
+    <t>Igorot Stone Kingdom is one of the newest attractions in Baguio, it is a man-made park made out of stone that showcases Igorot culture. The inspiration is based on a legend of a lost Igorot Stone Kingdom.</t>
   </si>
   <si>
     <t>User_ID</t>
@@ -443,8 +469,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +505,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,31 +558,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,77 +590,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -626,10 +683,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -667,71 +724,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,7 +816,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -782,11 +839,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -795,13 +852,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -811,7 +868,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -820,7 +877,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -829,7 +886,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -837,10 +894,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -905,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -915,12 +972,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>82</v>
@@ -935,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -945,18 +1004,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -965,31 +1026,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="56.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1023,31 +1084,34 @@
       <c r="K1" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7">
-        <v>16.412595609213799</v>
+        <v>16.4125956092138</v>
       </c>
       <c r="F2" s="7">
         <v>120.592981125598</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="7">
         <v>4.5</v>
@@ -1058,32 +1122,34 @@
       <c r="K2" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A13" si="0">A2+1</f>
-        <v>2</v>
+        <f>A2+1</f>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="7">
-        <v>16.419987018055799</v>
+        <v>16.4199870180558</v>
       </c>
       <c r="F3" s="7">
-        <v>120.62685124573601</v>
+        <v>120.626851245736</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I3" s="7">
         <v>4.7</v>
@@ -1092,37 +1158,39 @@
         <v>150</v>
       </c>
       <c r="K3" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>A3+1</f>
       </c>
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7">
         <v>16.4108656441059</v>
       </c>
       <c r="F4" s="7">
-        <v>120.59945916792699</v>
+        <v>120.599459167927</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I4" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J4" s="4">
         <v>200</v>
@@ -1130,32 +1198,34 @@
       <c r="K4" s="7">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>A4+1</f>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E5" s="7">
-        <v>16.412773300674498</v>
+        <v>16.4127733006745</v>
       </c>
       <c r="F5" s="7">
         <v>120.598570452584</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
         <v>4.5</v>
@@ -1166,20 +1236,22 @@
       <c r="K5" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A5+1</f>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E6" s="7">
         <v>16.3971039294189</v>
@@ -1188,10 +1260,10 @@
         <v>120.611358506823</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I6" s="7">
         <v>4.7</v>
@@ -1200,37 +1272,39 @@
         <v>150</v>
       </c>
       <c r="K6" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>A6+1</f>
       </c>
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="7">
-        <v>16.415758876068502</v>
+        <v>16.4157588760685</v>
       </c>
       <c r="F7" s="7">
         <v>120.617217935543</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J7" s="4">
         <v>120</v>
@@ -1238,32 +1312,34 @@
       <c r="K7" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A7+1</f>
       </c>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7">
-        <v>16.415310238402899</v>
+        <v>16.4153102384029</v>
       </c>
       <c r="F8" s="7">
-        <v>120.61278837957001</v>
+        <v>120.61278837957</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
         <v>4.5</v>
@@ -1274,32 +1350,34 @@
       <c r="K8" s="7">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A8+1</f>
       </c>
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7">
-        <v>16.429908952960901</v>
+        <v>16.4299089529609</v>
       </c>
       <c r="F9" s="7">
         <v>120.57634198142</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I9" s="7">
         <v>4.7</v>
@@ -1308,37 +1386,39 @@
         <v>120</v>
       </c>
       <c r="K9" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A9+1</f>
       </c>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E10" s="7">
-        <v>16.410983886266401</v>
+        <v>16.4109838862664</v>
       </c>
       <c r="F10" s="7">
         <v>120.550498727448</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J10" s="4">
         <v>80</v>
@@ -1346,32 +1426,34 @@
       <c r="K10" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>A10+1</f>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="7">
+        <v>16.4220313516006</v>
+      </c>
+      <c r="F11" s="7">
+        <v>120.625645213956</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E11" s="7">
-        <v>16.422031351600602</v>
-      </c>
-      <c r="F11" s="7">
-        <v>120.62564521395601</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="I11" s="7">
         <v>4.8</v>
@@ -1380,34 +1462,36 @@
         <v>150</v>
       </c>
       <c r="K11" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.9</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>A11+1</f>
       </c>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E12" s="7">
-        <v>16.361052694493601</v>
+        <v>16.3610526944936</v>
       </c>
       <c r="F12" s="7">
         <v>120.619403267926</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7">
         <v>4.7</v>
@@ -1416,22 +1500,24 @@
         <v>100</v>
       </c>
       <c r="K12" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.9</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>A12+1</f>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E13" s="7">
         <v>16.4128628588462</v>
@@ -1440,13 +1526,13 @@
         <v>120.59481358142</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J13" s="4">
         <v>200</v>
@@ -1454,34 +1540,37 @@
       <c r="K13" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E14" s="7">
-        <v>16.406408288045601</v>
+        <v>16.4064082880456</v>
       </c>
       <c r="F14" s="7">
         <v>120.597870646028</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I14" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J14" s="4">
         <v>190</v>
@@ -1489,19 +1578,22 @@
       <c r="K14" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E15" s="7">
         <v>16.4317922785078</v>
@@ -1510,10 +1602,10 @@
         <v>120.57511758327</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I15" s="7">
         <v>4.2</v>
@@ -1524,859 +1616,989 @@
       <c r="K15" s="7">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="L15" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="20"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="20"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="20"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="20"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="20"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="20"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="20"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="20"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="20"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="20"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="20"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="20"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="20"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="20"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="20"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="20"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="20"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="20"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="17"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="20"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="20"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="20"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="17"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="20"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="20"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="20"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="20"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="20"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="20"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="20"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="20"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="2"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="20"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="20"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="20"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="20"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="20"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="20"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="20"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="20"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="19"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="20"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="19"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="20"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="19"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="20"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="19"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="20"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="19"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="20"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="19"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="20"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="19"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="20"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="19"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="20"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="19"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="20"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="19"/>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="20"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="19"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="20"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="19"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="20"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="19"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="20"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="19"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="20"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="19"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="20"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="19"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="20"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="19"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="20"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="19"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="20"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="19"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="20"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="19"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="20"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="19"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,28 +2606,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="70.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2448,10 +2670,10 @@
         <v>16.4117807699579</v>
       </c>
       <c r="E2" s="7">
-        <v>120.59200212592199</v>
+        <v>120.592002125922</v>
       </c>
       <c r="F2" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G2" s="4">
         <v>10000</v>
@@ -2463,7 +2685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2474,13 +2696,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="7">
-        <v>16.409994152128299</v>
+        <v>16.4099941521283</v>
       </c>
       <c r="E3" s="7">
         <v>120.600346114616</v>
       </c>
       <c r="F3" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G3" s="4">
         <v>1400</v>
@@ -2492,7 +2714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2503,13 +2725,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>16.409313822272502</v>
+        <v>16.4093138222725</v>
       </c>
       <c r="E4" s="9">
         <v>120.594638174651</v>
       </c>
       <c r="F4" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G4" s="4">
         <v>1600</v>
@@ -2521,7 +2743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2532,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>16.429972084237502</v>
+        <v>16.4299720842375</v>
       </c>
       <c r="E5" s="9">
         <v>120.576368765872</v>
@@ -2550,7 +2772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2567,7 +2789,7 @@
         <v>120.598029379366</v>
       </c>
       <c r="F6" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G6" s="4">
         <v>797</v>
@@ -2579,7 +2801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2590,7 +2812,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>16.404434434753199</v>
+        <v>16.4044344347532</v>
       </c>
       <c r="E7" s="7">
         <v>120.592788330659</v>
@@ -2608,7 +2830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2619,7 +2841,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>16.400880083612901</v>
+        <v>16.4008800836129</v>
       </c>
       <c r="E8" s="7">
         <v>120.617697223543</v>
@@ -2637,7 +2859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2648,13 +2870,13 @@
         <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>16.411101253816302</v>
+        <v>16.4111012538163</v>
       </c>
       <c r="E9" s="7">
-        <v>120.62300949173699</v>
+        <v>120.623009491737</v>
       </c>
       <c r="F9" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G9" s="4">
         <v>1800</v>
@@ -2666,7 +2888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2677,13 +2899,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>16.409648715455798</v>
+        <v>16.4096487154558</v>
       </c>
       <c r="E10" s="7">
         <v>120.622977233689</v>
       </c>
       <c r="F10" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G10" s="4">
         <v>1200</v>
@@ -2695,7 +2917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2706,7 +2928,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>16.412016872315402</v>
+        <v>16.4120168723154</v>
       </c>
       <c r="E11" s="7">
         <v>120.609841612781</v>
@@ -2724,7 +2946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2735,13 +2957,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>16.411976101537601</v>
+        <v>16.4119761015376</v>
       </c>
       <c r="E12" s="7">
-        <v>120.60296889859499</v>
+        <v>120.602968898595</v>
       </c>
       <c r="F12" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G12" s="4">
         <v>438</v>
@@ -2753,7 +2975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2764,7 +2986,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>16.411329035355799</v>
+        <v>16.4113290353558</v>
       </c>
       <c r="E13" s="7">
         <v>120.604612093051</v>
@@ -2782,7 +3004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2811,7 +3033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="492.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2840,7 +3062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2851,13 +3073,13 @@
         <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>16.413037092243901</v>
+        <v>16.4130370922439</v>
       </c>
       <c r="E16" s="7">
         <v>120.591616408392</v>
       </c>
       <c r="F16" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G16" s="4">
         <v>1900</v>
@@ -2869,7 +3091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2880,13 +3102,13 @@
         <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>16.408627427330501</v>
+        <v>16.4086274273305</v>
       </c>
       <c r="E17" s="7">
         <v>120.610522379557</v>
       </c>
       <c r="F17" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G17" s="4">
         <v>1700</v>
@@ -2898,7 +3120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="384.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2909,10 +3131,10 @@
         <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>16.399794216253301</v>
+        <v>16.3997942162533</v>
       </c>
       <c r="E18" s="7">
-        <v>120.58405907955699</v>
+        <v>120.584059079557</v>
       </c>
       <c r="F18" s="7">
         <v>4.3</v>
@@ -2927,7 +3149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2938,7 +3160,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>16.406464480047799</v>
+        <v>16.4064644800478</v>
       </c>
       <c r="E19" s="7">
         <v>120.593276000442</v>
@@ -2956,10 +3178,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="4">
         <f>A19 + 1</f>
-        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>70</v>
@@ -2968,7 +3189,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>16.414487992613601</v>
+        <v>16.4144879926136</v>
       </c>
       <c r="E20" s="7">
         <v>120.579369322673</v>
@@ -2986,10 +3207,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <f>A20 + 1</f>
-        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>73</v>
@@ -3016,10 +3236,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <f>A21 + 1</f>
-        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>76</v>
@@ -3028,13 +3247,13 @@
         <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>16.418056502322301</v>
+        <v>16.4180565023223</v>
       </c>
       <c r="E22" s="7">
         <v>120.622872053359</v>
       </c>
       <c r="F22" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G22" s="4">
         <v>56</v>
@@ -3046,10 +3265,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <f>A22 + 1</f>
-        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>79</v>
@@ -3058,7 +3276,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>16.408614748825201</v>
+        <v>16.4086147488252</v>
       </c>
       <c r="E23" s="7">
         <v>120.599743151903</v>

--- a/Thesis_Codes/Back_End/Baguio_Dataset.xlsx
+++ b/Thesis_Codes/Back_End/Baguio_Dataset.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ellison\School\3RD YEAR COLLEGE 1ST SEM\SOFTWARE ENGINEER\Cultour App\CulTour_Ellison_and_Friends\Thesis_Codes\Back_End\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7B8AC-94F5-4EF8-A3C7-024F15FEB94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Monitor_Data"/>
-    <sheet r:id="rId2" sheetId="2" name="User_Account"/>
-    <sheet r:id="rId3" sheetId="3" name="Tourist Attraction"/>
-    <sheet r:id="rId4" sheetId="4" name="Restaurant"/>
+    <sheet name="Monitor_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="User_Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Tourist Attraction" sheetId="3" r:id="rId3"/>
+    <sheet name="Restaurant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -469,8 +488,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,7 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -558,31 +576,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,89 +608,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,10 +698,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -724,71 +739,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,7 +831,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -839,11 +854,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -852,13 +867,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -868,7 +883,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -877,7 +892,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -886,7 +901,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -894,10 +909,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -962,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -972,12 +987,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>146</v>
       </c>
@@ -994,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1004,12 +1017,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>146</v>
       </c>
@@ -1026,31 +1037,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="56.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="7">
-        <v>16.4125956092138</v>
+        <v>16.412595609213799</v>
       </c>
       <c r="F2" s="7">
         <v>120.592981125598</v>
@@ -1126,9 +1136,10 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A13" si="0">A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>95</v>
@@ -1140,10 +1151,10 @@
         <v>91</v>
       </c>
       <c r="E3" s="7">
-        <v>16.4199870180558</v>
+        <v>16.419987018055799</v>
       </c>
       <c r="F3" s="7">
-        <v>120.626851245736</v>
+        <v>120.62685124573601</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>92</v>
@@ -1158,15 +1169,16 @@
         <v>150</v>
       </c>
       <c r="K3" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="L3" s="17" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>99</v>
@@ -1181,7 +1193,7 @@
         <v>16.4108656441059</v>
       </c>
       <c r="F4" s="7">
-        <v>120.599459167927</v>
+        <v>120.59945916792699</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>102</v>
@@ -1190,7 +1202,7 @@
         <v>103</v>
       </c>
       <c r="I4" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J4" s="4">
         <v>200</v>
@@ -1198,13 +1210,14 @@
       <c r="K4" s="7">
         <v>4.7</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>105</v>
@@ -1216,7 +1229,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="7">
-        <v>16.4127733006745</v>
+        <v>16.412773300674498</v>
       </c>
       <c r="F5" s="7">
         <v>120.598570452584</v>
@@ -1236,13 +1249,14 @@
       <c r="K5" s="7">
         <v>4.8</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>109</v>
@@ -1272,15 +1286,16 @@
         <v>150</v>
       </c>
       <c r="K6" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="L6" s="18" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>112</v>
@@ -1292,7 +1307,7 @@
         <v>91</v>
       </c>
       <c r="E7" s="7">
-        <v>16.4157588760685</v>
+        <v>16.415758876068502</v>
       </c>
       <c r="F7" s="7">
         <v>120.617217935543</v>
@@ -1304,7 +1319,7 @@
         <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J7" s="4">
         <v>120</v>
@@ -1312,13 +1327,14 @@
       <c r="K7" s="7">
         <v>4.8</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>115</v>
@@ -1330,10 +1346,10 @@
         <v>91</v>
       </c>
       <c r="E8" s="7">
-        <v>16.4153102384029</v>
+        <v>16.415310238402899</v>
       </c>
       <c r="F8" s="7">
-        <v>120.61278837957</v>
+        <v>120.61278837957001</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>117</v>
@@ -1350,13 +1366,14 @@
       <c r="K8" s="7">
         <v>4.7</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>120</v>
@@ -1368,7 +1385,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="7">
-        <v>16.4299089529609</v>
+        <v>16.429908952960901</v>
       </c>
       <c r="F9" s="7">
         <v>120.57634198142</v>
@@ -1386,15 +1403,16 @@
         <v>120</v>
       </c>
       <c r="K9" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="L9" s="19" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>125</v>
@@ -1406,7 +1424,7 @@
         <v>127</v>
       </c>
       <c r="E10" s="7">
-        <v>16.4109838862664</v>
+        <v>16.410983886266401</v>
       </c>
       <c r="F10" s="7">
         <v>120.550498727448</v>
@@ -1418,7 +1436,7 @@
         <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J10" s="4">
         <v>80</v>
@@ -1426,13 +1444,14 @@
       <c r="K10" s="7">
         <v>4.8</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>130</v>
@@ -1444,10 +1463,10 @@
         <v>107</v>
       </c>
       <c r="E11" s="7">
-        <v>16.4220313516006</v>
+        <v>16.422031351600602</v>
       </c>
       <c r="F11" s="7">
-        <v>120.625645213956</v>
+        <v>120.62564521395601</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>117</v>
@@ -1462,15 +1481,16 @@
         <v>150</v>
       </c>
       <c r="K11" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="L11" s="19" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>133</v>
@@ -1482,7 +1502,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="7">
-        <v>16.3610526944936</v>
+        <v>16.361052694493601</v>
       </c>
       <c r="F12" s="7">
         <v>120.619403267926</v>
@@ -1500,15 +1520,16 @@
         <v>100</v>
       </c>
       <c r="K12" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="L12" s="17" t="s">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>136</v>
@@ -1532,7 +1553,7 @@
         <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J13" s="4">
         <v>200</v>
@@ -1540,11 +1561,11 @@
       <c r="K13" s="7">
         <v>4.8</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1558,7 +1579,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="7">
-        <v>16.4064082880456</v>
+        <v>16.406408288045601</v>
       </c>
       <c r="F14" s="7">
         <v>120.597870646028</v>
@@ -1570,7 +1591,7 @@
         <v>103</v>
       </c>
       <c r="I14" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J14" s="4">
         <v>190</v>
@@ -1578,11 +1599,11 @@
       <c r="K14" s="7">
         <v>4</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1616,989 +1637,862 @@
       <c r="K15" s="7">
         <v>4.3</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="20"/>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="20"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="20"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="22"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="20"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="22"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="20"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="20"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="20"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="20"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="22"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="20"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="22"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="22"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="20"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="22"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="20"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="22"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="20"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="22"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="20"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="22"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="20"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="22"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="20"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="22"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="20"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="22"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="20"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="22"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="20"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="22"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="20"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="22"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="20"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="22"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="20"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="22"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="20"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="22"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="20"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="22"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="20"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="22"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="20"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="22"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="20"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="22"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="20"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="22"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="20"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="22"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="17"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2606,28 +2500,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="70.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2670,10 +2564,10 @@
         <v>16.4117807699579</v>
       </c>
       <c r="E2" s="7">
-        <v>120.592002125922</v>
+        <v>120.59200212592199</v>
       </c>
       <c r="F2" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G2" s="4">
         <v>10000</v>
@@ -2685,7 +2579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2696,13 +2590,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="7">
-        <v>16.4099941521283</v>
+        <v>16.409994152128299</v>
       </c>
       <c r="E3" s="7">
         <v>120.600346114616</v>
       </c>
       <c r="F3" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G3" s="4">
         <v>1400</v>
@@ -2714,7 +2608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2725,13 +2619,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>16.4093138222725</v>
+        <v>16.409313822272502</v>
       </c>
       <c r="E4" s="9">
         <v>120.594638174651</v>
       </c>
       <c r="F4" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G4" s="4">
         <v>1600</v>
@@ -2743,7 +2637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2754,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>16.4299720842375</v>
+        <v>16.429972084237502</v>
       </c>
       <c r="E5" s="9">
         <v>120.576368765872</v>
@@ -2772,7 +2666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2789,7 +2683,7 @@
         <v>120.598029379366</v>
       </c>
       <c r="F6" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="4">
         <v>797</v>
@@ -2801,7 +2695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2812,7 +2706,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>16.4044344347532</v>
+        <v>16.404434434753199</v>
       </c>
       <c r="E7" s="7">
         <v>120.592788330659</v>
@@ -2830,7 +2724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2841,7 +2735,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>16.4008800836129</v>
+        <v>16.400880083612901</v>
       </c>
       <c r="E8" s="7">
         <v>120.617697223543</v>
@@ -2859,7 +2753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2870,13 +2764,13 @@
         <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>16.4111012538163</v>
+        <v>16.411101253816302</v>
       </c>
       <c r="E9" s="7">
-        <v>120.623009491737</v>
+        <v>120.62300949173699</v>
       </c>
       <c r="F9" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G9" s="4">
         <v>1800</v>
@@ -2888,7 +2782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2899,13 +2793,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>16.4096487154558</v>
+        <v>16.409648715455798</v>
       </c>
       <c r="E10" s="7">
         <v>120.622977233689</v>
       </c>
       <c r="F10" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G10" s="4">
         <v>1200</v>
@@ -2917,7 +2811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2928,7 +2822,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>16.4120168723154</v>
+        <v>16.412016872315402</v>
       </c>
       <c r="E11" s="7">
         <v>120.609841612781</v>
@@ -2946,7 +2840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2957,13 +2851,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>16.4119761015376</v>
+        <v>16.411976101537601</v>
       </c>
       <c r="E12" s="7">
-        <v>120.602968898595</v>
+        <v>120.60296889859499</v>
       </c>
       <c r="F12" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G12" s="4">
         <v>438</v>
@@ -2975,7 +2869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2986,7 +2880,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>16.4113290353558</v>
+        <v>16.411329035355799</v>
       </c>
       <c r="E13" s="7">
         <v>120.604612093051</v>
@@ -2998,13 +2892,13 @@
         <v>246</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3033,7 +2927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="492.75">
+    <row r="15" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3062,7 +2956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3073,13 +2967,13 @@
         <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>16.4130370922439</v>
+        <v>16.413037092243901</v>
       </c>
       <c r="E16" s="7">
         <v>120.591616408392</v>
       </c>
       <c r="F16" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G16" s="4">
         <v>1900</v>
@@ -3091,7 +2985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3102,13 +2996,13 @@
         <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>16.4086274273305</v>
+        <v>16.408627427330501</v>
       </c>
       <c r="E17" s="7">
         <v>120.610522379557</v>
       </c>
       <c r="F17" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G17" s="4">
         <v>1700</v>
@@ -3120,7 +3014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="384.75">
+    <row r="18" spans="1:9" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3131,10 +3025,10 @@
         <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>16.3997942162533</v>
+        <v>16.399794216253301</v>
       </c>
       <c r="E18" s="7">
-        <v>120.584059079557</v>
+        <v>120.58405907955699</v>
       </c>
       <c r="F18" s="7">
         <v>4.3</v>
@@ -3149,7 +3043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3160,7 +3054,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>16.4064644800478</v>
+        <v>16.406464480047799</v>
       </c>
       <c r="E19" s="7">
         <v>120.593276000442</v>
@@ -3178,9 +3072,10 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>A19 + 1</f>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>70</v>
@@ -3189,7 +3084,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>16.4144879926136</v>
+        <v>16.414487992613601</v>
       </c>
       <c r="E20" s="7">
         <v>120.579369322673</v>
@@ -3207,9 +3102,10 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>A20 + 1</f>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>73</v>
@@ -3236,9 +3132,10 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A21 + 1</f>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>76</v>
@@ -3247,13 +3144,13 @@
         <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>16.4180565023223</v>
+        <v>16.418056502322301</v>
       </c>
       <c r="E22" s="7">
         <v>120.622872053359</v>
       </c>
       <c r="F22" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G22" s="4">
         <v>56</v>
@@ -3265,9 +3162,10 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>A22 + 1</f>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>79</v>
@@ -3276,7 +3174,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>16.4086147488252</v>
+        <v>16.408614748825201</v>
       </c>
       <c r="E23" s="7">
         <v>120.599743151903</v>
